--- a/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
+++ b/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreekanth/work/moj/ex-ui/ccd_def/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreekanth/work/moj/ex-ui/rpx-xui-webapp/test_codecept/e2e/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4D39C-E1D7-4344-94A4-08521F2DBC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA13CF9-2A06-2946-9523-6111C0648949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -6527,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8622,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9848,7 +9848,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>197</v>

--- a/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
+++ b/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreekanth/work/moj/ex-ui/rpx-xui-webapp/test_codecept/e2e/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA13CF9-2A06-2946-9523-6111C0648949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA2230-70FB-0945-B9DC-5ABB01D06A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="386">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -6527,7 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -8620,10 +8620,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9839,23 +9839,25 @@
         <v>384</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>382</v>
+        <v>198</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="21">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I28" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="J28" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -9883,13 +9885,13 @@
         <v>198</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>187</v>
@@ -9901,18 +9903,18 @@
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="7"/>
       <c r="O29" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
@@ -9926,10 +9928,10 @@
         <v>198</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>190</v>
@@ -9948,14 +9950,13 @@
       <c r="M30" s="12"/>
       <c r="N30" s="7"/>
       <c r="O30" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
@@ -9969,10 +9970,10 @@
         <v>198</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F31" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>190</v>
@@ -9988,10 +9989,10 @@
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -10011,10 +10012,10 @@
         <v>198</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>190</v>
@@ -10030,10 +10031,10 @@
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="7"/>
       <c r="O32" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -10053,10 +10054,10 @@
         <v>198</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>190</v>
@@ -10075,7 +10076,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="7"/>
       <c r="O33" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -10095,29 +10096,29 @@
         <v>198</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J34" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="7"/>
       <c r="O34" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -10137,10 +10138,10 @@
         <v>198</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F35" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>190</v>
@@ -10159,7 +10160,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="7"/>
       <c r="O35" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -10179,10 +10180,10 @@
         <v>198</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F36" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>190</v>
@@ -10201,7 +10202,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="7"/>
       <c r="O36" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -10221,10 +10222,10 @@
         <v>198</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>190</v>
@@ -10243,7 +10244,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="7"/>
       <c r="O37" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -10263,10 +10264,10 @@
         <v>198</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F38" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>190</v>
@@ -10305,29 +10306,29 @@
         <v>198</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F39" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J39" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="7"/>
       <c r="O39" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -10347,13 +10348,13 @@
         <v>198</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>195</v>
@@ -10365,11 +10366,11 @@
         <v>3</v>
       </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -10389,10 +10390,10 @@
         <v>198</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>186</v>
@@ -10411,7 +10412,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -10431,10 +10432,10 @@
         <v>198</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F42" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>186</v>
@@ -10453,7 +10454,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -10473,10 +10474,10 @@
         <v>198</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F43" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>186</v>
@@ -10495,7 +10496,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -10515,10 +10516,10 @@
         <v>198</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F44" s="21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>186</v>
@@ -10537,7 +10538,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -10557,22 +10558,20 @@
         <v>198</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F45" s="21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>186</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -10599,10 +10598,10 @@
         <v>198</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F46" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>186</v>
@@ -10619,7 +10618,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -10639,13 +10638,13 @@
         <v>198</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F47" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>197</v>
@@ -10659,7 +10658,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -10678,14 +10677,14 @@
       <c r="D48" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>114</v>
+      <c r="E48" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="F48" s="21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>197</v>
@@ -10699,7 +10698,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -10718,11 +10717,11 @@
       <c r="D49" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>117</v>
+      <c r="E49" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="F49" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>186</v>
@@ -10739,7 +10738,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -10759,10 +10758,10 @@
         <v>198</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F50" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>186</v>
@@ -10770,7 +10769,7 @@
       <c r="H50" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I50" s="12"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="21">
         <v>4</v>
       </c>
@@ -10779,7 +10778,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -10799,10 +10798,10 @@
         <v>198</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F51" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>186</v>
@@ -10810,7 +10809,7 @@
       <c r="H51" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="21">
         <v>4</v>
       </c>
@@ -10819,7 +10818,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
@@ -10835,22 +10834,24 @@
       <c r="C52" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>123</v>
+      <c r="D52" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="F52" s="21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H52" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="62" t="s">
+        <v>371</v>
+      </c>
       <c r="J52" s="21">
         <v>4</v>
       </c>
@@ -10858,8 +10859,8 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="12" t="s">
-        <v>191</v>
+      <c r="O52" s="62" t="s">
+        <v>189</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -10875,32 +10876,32 @@
       <c r="C53" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D53" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="E53" s="62" t="s">
-        <v>373</v>
+      <c r="D53" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="F53" s="21">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="I53" s="62" t="s">
-        <v>371</v>
+        <v>186</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="J53" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="62" t="s">
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="7"/>
@@ -10908,6 +10909,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
     </row>
     <row r="54" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
@@ -10921,22 +10923,22 @@
         <v>375</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="F54" s="21">
         <v>9</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="J54" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="12"/>
@@ -10950,53 +10952,10 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
-        <v>44075</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="F55" s="21">
-        <v>9</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="J55" s="21">
-        <v>2</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="71"/>
-    </row>
-    <row r="57" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="72"/>
+      <c r="U54" s="71"/>
+    </row>
+    <row r="56" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>

--- a/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
+++ b/test_codecept/e2e/documents/ccd-config-aat-xui-testCaseType_v2.dev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreekanth/work/moj/ex-ui/rpx-xui-webapp/test_codecept/e2e/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA2230-70FB-0945-B9DC-5ABB01D06A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E78B9-F5BC-184B-A588-1DE12FBC30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33480" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="387">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>DIVORCE</t>
-  </si>
-  <si>
-    <t>Family Divorce</t>
   </si>
   <si>
     <t>Family Divorce: dissolution of marriage</t>
@@ -1287,6 +1284,12 @@
   </si>
   <si>
     <t>XUI Test Case type dev</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>CIVIL</t>
   </si>
 </sst>
 </file>
@@ -2997,7 +3000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3071,14 +3076,14 @@
         <v>42736</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -3158,7 +3163,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3180,16 +3185,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3203,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3218,13 +3223,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -3234,13 +3239,13 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -3250,13 +3255,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -3325,7 +3330,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3357,38 +3362,38 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
@@ -3404,37 +3409,37 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -3445,24 +3450,24 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -3475,24 +3480,24 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -3505,26 +3510,26 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -3537,24 +3542,24 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -3567,24 +3572,24 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -3597,24 +3602,24 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -3627,24 +3632,24 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -3657,26 +3662,26 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -3689,26 +3694,26 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3721,24 +3726,24 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -3751,24 +3756,24 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3781,24 +3786,24 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -3811,24 +3816,24 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -3841,26 +3846,26 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -3873,26 +3878,26 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -3927,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -3949,16 +3954,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,16 +3974,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,13 +3992,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -4074,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -4091,10 +4096,10 @@
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -4102,13 +4107,13 @@
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
@@ -4198,7 +4203,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4220,16 +4225,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4240,16 +4245,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,13 +4263,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -4276,13 +4281,13 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="F5" s="21">
         <v>2</v>
@@ -4294,13 +4299,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F6" s="21">
         <v>3</v>
@@ -4312,13 +4317,13 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="F7" s="21">
         <v>4</v>
@@ -4379,7 +4384,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4404,25 +4409,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="52" t="s">
+      <c r="G2" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>312</v>
-      </c>
       <c r="H2" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>316</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4433,25 +4438,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4460,14 +4465,14 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
@@ -4481,14 +4486,14 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
@@ -4502,17 +4507,17 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4523,14 +4528,14 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="21">
         <v>4</v>
@@ -4544,14 +4549,14 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="21">
         <v>5</v>
@@ -4609,7 +4614,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -4631,16 +4636,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,16 +4656,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4669,13 +4674,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -4687,13 +4692,13 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="21">
         <v>2</v>
@@ -4769,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4792,13 +4797,13 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4809,16 +4814,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4906,7 +4911,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4927,13 +4932,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4944,13 +4949,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,13 +4964,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,13 +4979,13 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,13 +4994,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5004,13 +5009,13 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5019,13 +5024,13 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5073,7 +5078,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5095,16 +5100,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>340</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5115,16 +5120,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5133,16 +5138,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5151,16 +5156,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5169,16 +5174,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,16 +5192,16 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5205,16 +5210,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5223,16 +5228,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5241,16 +5246,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,16 +5264,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5277,16 +5282,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5295,16 +5300,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5313,16 +5318,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5331,16 +5336,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,16 +5354,16 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,16 +5372,16 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,16 +5390,16 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5403,16 +5408,16 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5421,16 +5426,16 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5439,16 +5444,16 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5457,16 +5462,16 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5475,16 +5480,16 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5493,16 +5498,16 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5511,16 +5516,16 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5529,16 +5534,16 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5547,16 +5552,16 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,16 +5570,16 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,16 +5588,16 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5601,16 +5606,16 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5619,16 +5624,16 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F31" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +5667,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -5678,22 +5683,22 @@
     </row>
     <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,7 +5709,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>12</v>
@@ -5721,16 +5726,16 @@
         <v>44075</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" t="s">
         <v>360</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>361</v>
-      </c>
-      <c r="F4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5738,16 +5743,16 @@
         <v>44075</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" t="s">
         <v>363</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>364</v>
-      </c>
-      <c r="F5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5821,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5843,16 +5848,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5863,16 +5868,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,16 +5886,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5899,16 +5904,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5917,16 +5922,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,16 +5940,16 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5953,16 +5958,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5971,16 +5976,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,16 +5994,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6007,16 +6012,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +6054,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6071,16 +6076,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6091,16 +6096,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6109,16 +6114,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6127,16 +6132,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,16 +6150,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6163,16 +6168,16 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6181,16 +6186,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6199,16 +6204,16 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6217,16 +6222,16 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6235,16 +6240,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6253,16 +6258,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6271,16 +6276,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6289,16 +6294,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,16 +6312,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6351,7 +6356,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6370,19 +6375,19 @@
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,19 +6398,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,19 +6419,19 @@
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6435,19 +6440,19 @@
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="67" t="s">
         <v>368</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6456,19 +6461,19 @@
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6477,19 +6482,19 @@
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6498,19 +6503,19 @@
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -6547,7 +6552,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6575,22 +6580,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,16 +6615,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6628,13 +6633,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>16</v>
@@ -6642,7 +6647,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,7 +6750,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6773,34 +6778,34 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6811,34 +6816,34 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6847,22 +6852,22 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -6873,26 +6878,26 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -6903,26 +6908,26 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -6933,24 +6938,24 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -6961,24 +6966,24 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -6989,24 +6994,24 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -7017,24 +7022,24 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -7045,24 +7050,24 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -7073,24 +7078,24 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -7101,26 +7106,26 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -7131,22 +7136,22 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -7157,22 +7162,22 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -7183,22 +7188,22 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -7209,22 +7214,22 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -7235,22 +7240,22 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -7261,22 +7266,22 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -7287,22 +7292,22 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -7313,22 +7318,22 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -7339,22 +7344,22 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -7365,22 +7370,22 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -7391,22 +7396,22 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -7417,24 +7422,24 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -7445,22 +7450,22 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -7471,22 +7476,22 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -7497,22 +7502,22 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -7523,22 +7528,22 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -7549,22 +7554,22 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -7575,22 +7580,22 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -7601,22 +7606,22 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D32" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="62" t="s">
         <v>373</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>374</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -7627,22 +7632,22 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="70" t="s">
-        <v>378</v>
-      </c>
       <c r="G33" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7651,22 +7656,22 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="70" t="s">
-        <v>383</v>
-      </c>
       <c r="G34" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7703,7 +7708,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="3" t="s">
@@ -7732,37 +7737,37 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7773,37 +7778,37 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7812,22 +7817,22 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="21">
@@ -7843,22 +7848,22 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G5" s="21">
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="21">
@@ -7874,22 +7879,22 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G6" s="21">
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="21">
@@ -7905,22 +7910,22 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="21">
@@ -7936,22 +7941,22 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="21">
@@ -7967,22 +7972,22 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="21">
@@ -7998,22 +8003,22 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="21">
@@ -8029,22 +8034,22 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="21">
@@ -8060,22 +8065,22 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="21">
         <v>1</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="21">
@@ -8091,22 +8096,22 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="21">
@@ -8122,22 +8127,22 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="21">
@@ -8153,22 +8158,22 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G15" s="21">
         <v>1</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="21">
@@ -8184,22 +8189,22 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G16" s="21">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="21">
@@ -8215,22 +8220,22 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="21">
@@ -8246,22 +8251,22 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G18" s="21">
         <v>1</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -8275,22 +8280,22 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
@@ -8304,22 +8309,22 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G20" s="21">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
@@ -8333,22 +8338,22 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G21" s="21">
         <v>1</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
@@ -8362,22 +8367,22 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G22" s="21">
         <v>1</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
@@ -8391,22 +8396,22 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G23" s="21">
         <v>1</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
@@ -8420,22 +8425,22 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G24" s="21">
         <v>1</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
@@ -8449,22 +8454,22 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="21">
         <v>1</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
@@ -8478,22 +8483,22 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G26" s="21">
         <v>1</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
@@ -8507,22 +8512,22 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G27" s="21">
         <v>1</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
@@ -8536,22 +8541,22 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G28" s="21">
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
@@ -8565,22 +8570,22 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="G29" s="21">
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
@@ -8594,19 +8599,19 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="H30" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8622,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8651,7 +8656,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -8688,61 +8693,61 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="U2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8753,61 +8758,61 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="U3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8816,25 +8821,25 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J4" s="21">
         <v>1</v>
@@ -8844,7 +8849,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -8859,25 +8864,25 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="21">
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -8887,7 +8892,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7"/>
       <c r="O5" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -8902,25 +8907,25 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="21">
         <v>3</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J6" s="21">
         <v>1</v>
@@ -8930,7 +8935,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7"/>
       <c r="O6" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -8945,25 +8950,25 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="21">
         <v>4</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J7" s="21">
         <v>1</v>
@@ -8973,7 +8978,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -8988,25 +8993,25 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="21">
         <v>5</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J8" s="21">
         <v>1</v>
@@ -9016,7 +9021,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="7"/>
       <c r="O8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -9031,25 +9036,25 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="21">
         <v>6</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J9" s="21">
         <v>1</v>
@@ -9059,7 +9064,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="7"/>
       <c r="O9" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -9074,25 +9079,25 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="21">
         <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J10" s="21">
         <v>2</v>
@@ -9102,7 +9107,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="7"/>
       <c r="O10" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -9117,25 +9122,25 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="21">
         <v>8</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J11" s="21">
         <v>2</v>
@@ -9145,7 +9150,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="7"/>
       <c r="O11" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -9160,25 +9165,25 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="21">
         <v>9</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J12" s="21">
         <v>2</v>
@@ -9187,10 +9192,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -9205,25 +9210,25 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="21">
         <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J13" s="21">
         <v>2</v>
@@ -9233,7 +9238,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="7"/>
       <c r="O13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -9248,25 +9253,25 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="21">
         <v>12</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
@@ -9276,7 +9281,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="7"/>
       <c r="O14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -9291,25 +9296,25 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="21">
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J15" s="21">
         <v>3</v>
@@ -9319,7 +9324,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="7"/>
       <c r="O15" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -9334,25 +9339,25 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="21">
         <v>14</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J16" s="21">
         <v>3</v>
@@ -9362,7 +9367,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -9377,25 +9382,25 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="21">
         <v>15</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J17" s="21">
         <v>3</v>
@@ -9405,7 +9410,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -9420,25 +9425,25 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="21">
         <v>16</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J18" s="21">
         <v>3</v>
@@ -9448,7 +9453,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -9463,25 +9468,25 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="21">
         <v>17</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J19" s="21">
         <v>3</v>
@@ -9491,7 +9496,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -9506,25 +9511,25 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="21">
         <v>18</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J20" s="21">
         <v>3</v>
@@ -9534,7 +9539,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -9549,22 +9554,22 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="21">
         <v>20</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="21">
@@ -9575,7 +9580,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -9590,22 +9595,22 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="21">
         <v>21</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="21">
@@ -9616,7 +9621,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -9631,22 +9636,22 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="21">
         <v>22</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="21">
@@ -9657,7 +9662,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -9672,22 +9677,22 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="21">
         <v>23</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="21">
@@ -9698,7 +9703,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -9713,22 +9718,22 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="21">
         <v>24</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="21">
@@ -9739,7 +9744,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -9754,22 +9759,22 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="21">
         <v>25</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="21">
@@ -9780,7 +9785,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -9795,22 +9800,22 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="21">
         <v>26</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="21">
@@ -9821,7 +9826,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -9836,25 +9841,25 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="21">
         <v>1</v>
       </c>
       <c r="G28" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -9864,7 +9869,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -9879,25 +9884,25 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="21">
         <v>2</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J29" s="21">
         <v>1</v>
@@ -9907,7 +9912,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="7"/>
       <c r="O29" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -9922,25 +9927,25 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="21">
         <v>3</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J30" s="21">
         <v>1</v>
@@ -9950,7 +9955,7 @@
       <c r="M30" s="12"/>
       <c r="N30" s="7"/>
       <c r="O30" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -9964,25 +9969,25 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="21">
         <v>4</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J31" s="21">
         <v>1</v>
@@ -9992,7 +9997,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -10006,25 +10011,25 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="21">
         <v>5</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J32" s="21">
         <v>1</v>
@@ -10034,7 +10039,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="7"/>
       <c r="O32" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -10048,25 +10053,25 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="21">
         <v>6</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J33" s="21">
         <v>1</v>
@@ -10076,7 +10081,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="7"/>
       <c r="O33" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -10090,25 +10095,25 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="21">
         <v>7</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J34" s="21">
         <v>2</v>
@@ -10118,7 +10123,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="7"/>
       <c r="O34" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -10132,25 +10137,25 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" s="21">
         <v>8</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J35" s="21">
         <v>2</v>
@@ -10160,7 +10165,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="7"/>
       <c r="O35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -10174,25 +10179,25 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="21">
         <v>9</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J36" s="21">
         <v>2</v>
@@ -10202,7 +10207,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="7"/>
       <c r="O36" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -10216,25 +10221,25 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="21">
         <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H37" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J37" s="21">
         <v>2</v>
@@ -10244,7 +10249,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="7"/>
       <c r="O37" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -10258,25 +10263,25 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" s="21">
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J38" s="21">
         <v>2</v>
@@ -10286,7 +10291,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="7"/>
       <c r="O38" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -10300,25 +10305,25 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="21">
         <v>13</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J39" s="21">
         <v>3</v>
@@ -10328,7 +10333,7 @@
       <c r="M39" s="12"/>
       <c r="N39" s="7"/>
       <c r="O39" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -10342,25 +10347,25 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="21">
         <v>14</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J40" s="21">
         <v>3</v>
@@ -10370,7 +10375,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -10384,25 +10389,25 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="21">
         <v>15</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J41" s="21">
         <v>3</v>
@@ -10412,7 +10417,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -10426,25 +10431,25 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="21">
         <v>16</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J42" s="21">
         <v>3</v>
@@ -10454,7 +10459,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -10468,25 +10473,25 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="21">
         <v>17</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J43" s="21">
         <v>3</v>
@@ -10496,7 +10501,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -10510,25 +10515,25 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="21">
         <v>18</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H44" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J44" s="21">
         <v>3</v>
@@ -10538,7 +10543,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -10552,22 +10557,22 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="21">
         <v>20</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="21">
@@ -10578,7 +10583,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -10592,22 +10597,22 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="21">
         <v>21</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="21">
@@ -10618,7 +10623,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -10632,22 +10637,22 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F47" s="21">
         <v>22</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="21">
@@ -10658,7 +10663,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -10672,22 +10677,22 @@
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="21">
         <v>23</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="21">
@@ -10698,7 +10703,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -10712,22 +10717,22 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" s="21">
         <v>24</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="21">
@@ -10738,7 +10743,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -10752,22 +10757,22 @@
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="21">
         <v>25</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="21">
@@ -10778,7 +10783,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -10792,22 +10797,22 @@
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F51" s="21">
         <v>26</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="21">
@@ -10818,7 +10823,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
@@ -10832,25 +10837,25 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="21">
         <v>28</v>
       </c>
       <c r="G52" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="62" t="s">
         <v>370</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="62" t="s">
-        <v>371</v>
       </c>
       <c r="J52" s="21">
         <v>4</v>
@@ -10860,7 +10865,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -10874,25 +10879,25 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="21">
         <v>9</v>
       </c>
       <c r="G53" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="I53" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="J53" s="21">
         <v>1</v>
@@ -10902,7 +10907,7 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -10917,25 +10922,25 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F54" s="21">
         <v>9</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J54" s="21">
         <v>2</v>
@@ -10945,7 +10950,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -10993,7 +10998,7 @@
   <sheetData>
     <row r="1" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -11265,32 +11270,32 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -11548,31 +11553,31 @@
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -11825,20 +11830,20 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7"/>
       <c r="K4" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -11848,20 +11853,20 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" s="65"/>
       <c r="K5" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11870,25 +11875,25 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11897,25 +11902,25 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="65"/>
       <c r="K7" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -11950,7 +11955,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -11974,22 +11979,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12000,7 +12005,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -12012,10 +12017,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12024,16 +12029,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
@@ -12046,16 +12051,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
@@ -12068,16 +12073,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="21">
         <v>3</v>
@@ -12157,7 +12162,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -12193,58 +12198,58 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -12255,7 +12260,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -12267,46 +12272,46 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12315,23 +12320,23 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -12340,13 +12345,13 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -12357,25 +12362,25 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="21">
         <v>2</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="7"/>
@@ -12384,13 +12389,13 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -12401,25 +12406,25 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="F6" s="62" t="s">
         <v>355</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>356</v>
       </c>
       <c r="G6" s="21">
         <v>3</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="7"/>
@@ -12428,13 +12433,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="R6" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -12445,25 +12450,25 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="F7" s="62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="7"/>
@@ -12472,13 +12477,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
